--- a/季诚/成交客户/军发电子/送货单/送货单.xlsx
+++ b/季诚/成交客户/军发电子/送货单/送货单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9612" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="UW27B" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <t>出库日期:</t>
   </si>
   <si>
-    <t>客户联系人：苏良军</t>
+    <t>客户联系人：苏军良</t>
   </si>
   <si>
     <t>联系电话:</t>
@@ -203,6 +203,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -211,6 +284,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -219,54 +307,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,45 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,28 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -361,43 +361,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,138 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,16 +608,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +633,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,24 +696,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -680,30 +704,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -712,10 +712,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +724,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1557,8 +1557,8 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>

--- a/季诚/成交客户/军发电子/送货单/送货单.xlsx
+++ b/季诚/成交客户/军发电子/送货单/送货单.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9612"/>
+    <workbookView windowWidth="23040" windowHeight="9612" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UW27B" sheetId="1" r:id="rId1"/>
     <sheet name="60-Y" sheetId="2" r:id="rId2"/>
+    <sheet name="UR55" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>台州市季诚电子科技有限公司</t>
   </si>
@@ -157,15 +158,24 @@
   <si>
     <t>1800K/22-24LM/2.9-3.0V</t>
   </si>
+  <si>
+    <t>0.2W/2835/红光</t>
+  </si>
+  <si>
+    <t>E2835UR55</t>
+  </si>
+  <si>
+    <t>620-625NM/2.0-2.2V/5-6LM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -199,47 +209,62 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +278,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -261,18 +301,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,13 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -300,48 +350,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,13 +377,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,163 +521,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +617,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -640,8 +670,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,24 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,164 +714,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,7 +1249,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -1869,4 +1879,323 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="6.4" customWidth="1"/>
+    <col min="2" max="2" width="13.8" customWidth="1"/>
+    <col min="3" max="3" width="15.4" customWidth="1"/>
+    <col min="4" max="4" width="8.29166666666667" customWidth="1"/>
+    <col min="5" max="5" width="6.4" customWidth="1"/>
+    <col min="6" max="6" width="9.4" customWidth="1"/>
+    <col min="7" max="7" width="9.29166666666667" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" ht="4" customHeight="1" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43935</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18958505022</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="31" customHeight="1" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="42" customHeight="1" spans="1:8">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8">
+        <v>72</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8">
+        <f>D8*F8</f>
+        <v>1296</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="31" customHeight="1" spans="1:8">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
+        <f>SUM(G8:G9)</f>
+        <v>1296</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" ht="6" customHeight="1" spans="1:8">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="12" customHeight="1" spans="1:8">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" ht="7" customHeight="1" spans="1:8">
+      <c r="A16" s="20"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15858239032</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:H17"/>
+  </mergeCells>
+  <pageMargins left="0.51" right="0.0784722222222222" top="0.28" bottom="1" header="0.28" footer="0.51"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
 </file>
--- a/季诚/成交客户/军发电子/送货单/送货单.xlsx
+++ b/季诚/成交客户/军发电子/送货单/送货单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>台州市季诚电子科技有限公司</t>
   </si>
@@ -78,10 +78,22 @@
     <t>K</t>
   </si>
   <si>
+    <t>65-4区，6500-7000K，24-26LM,3.0-3.3V,铜支架</t>
+  </si>
+  <si>
+    <t>0.2W/2835/金黄光</t>
+  </si>
+  <si>
+    <t>G2835US60-Y</t>
+  </si>
+  <si>
+    <t>1800K/22-24LM/2.9-3.0V</t>
+  </si>
+  <si>
+    <t>2835七彩慢闪</t>
+  </si>
+  <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>65-4区，6500-7000K，24-26LM,3.0-3.3V,铜支架</t>
   </si>
   <si>
     <t>合     计：</t>
@@ -150,15 +162,6 @@
     <t>收款方式： 月结30天</t>
   </si>
   <si>
-    <t>0.2W/2835/金黄光</t>
-  </si>
-  <si>
-    <t>G2835US60-Y</t>
-  </si>
-  <si>
-    <t>1800K/22-24LM/2.9-3.0V</t>
-  </si>
-  <si>
     <t>0.2W/2835/红光</t>
   </si>
   <si>
@@ -173,9 +176,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -209,42 +212,112 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,75 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -333,6 +337,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -349,14 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -371,187 +374,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,26 +620,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -667,10 +650,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -699,168 +717,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,10 +1250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1311,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>43904</v>
+        <v>43941</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1373,7 +1376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:8">
+    <row r="8" ht="34" customHeight="1" spans="1:8">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -1384,82 +1387,115 @@
         <v>18</v>
       </c>
       <c r="D8" s="8">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <f>D8*F8</f>
+        <v>2000</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+    </row>
+    <row r="9" ht="31" customHeight="1" spans="1:8">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8">
+        <f>D9*F9</f>
+        <v>540</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:8">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8">
         <v>20</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="31" customHeight="1" spans="1:8">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
-        <f>SUM(G8:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" ht="6" customHeight="1" spans="1:8">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" ht="28" customHeight="1" spans="1:8">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" ht="16" customHeight="1" spans="1:8">
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8">
+        <v>65</v>
+      </c>
+      <c r="G10" s="8">
+        <f>D10*F10</f>
+        <v>1300</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
+        <f>SUM(G8:G10)</f>
+        <v>3840</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" ht="6" customHeight="1" spans="1:8">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" ht="28" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" ht="12" customHeight="1" spans="1:8">
-      <c r="A14" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" ht="16" customHeight="1" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1468,47 +1504,43 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" ht="7" customHeight="1" spans="1:8">
-      <c r="A16" s="20"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="15" ht="12" customHeight="1" spans="1:8">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" ht="7" customHeight="1" spans="1:8">
+      <c r="A17" s="20"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2">
-        <v>15858239032</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1518,10 +1550,10 @@
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15858239032</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1530,15 +1562,29 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+    <row r="20" ht="17" customHeight="1" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1550,11 +1596,11 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <pageMargins left="0.51" right="0.0784722222222222" top="0.28" bottom="1" header="0.28" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1568,7 +1614,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1651,7 +1697,7 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1696,10 +1742,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D8" s="8">
         <v>90</v>
@@ -1715,7 +1761,7 @@
         <v>1350</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="31" customHeight="1" spans="1:8">
@@ -1730,7 +1776,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -1755,7 +1801,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1767,7 +1813,7 @@
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1789,7 +1835,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1811,7 +1857,7 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1823,7 +1869,7 @@
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2">
         <v>15858239032</v>
@@ -1837,10 +1883,10 @@
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1887,7 +1933,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1948,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>43935</v>
+        <v>43942</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1970,7 +2016,7 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2015,13 +2061,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
@@ -2031,10 +2077,10 @@
       </c>
       <c r="G8" s="8">
         <f>D8*F8</f>
-        <v>1296</v>
+        <v>3888</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" ht="31" customHeight="1" spans="1:8">
@@ -2049,7 +2095,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -2058,7 +2104,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11">
         <f>SUM(G8:G9)</f>
-        <v>1296</v>
+        <v>3888</v>
       </c>
       <c r="H10" s="16"/>
     </row>
@@ -2074,7 +2120,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2086,7 +2132,7 @@
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2108,7 +2154,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -2130,7 +2176,7 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2142,7 +2188,7 @@
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2">
         <v>15858239032</v>
@@ -2156,10 +2202,10 @@
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>

--- a/季诚/成交客户/军发电子/送货单/送货单.xlsx
+++ b/季诚/成交客户/军发电子/送货单/送货单.xlsx
@@ -10,13 +10,14 @@
     <sheet name="UW27B" sheetId="1" r:id="rId1"/>
     <sheet name="60-Y" sheetId="2" r:id="rId2"/>
     <sheet name="UR55" sheetId="3" r:id="rId3"/>
+    <sheet name="七彩慢闪" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
   <si>
     <t>台州市季诚电子科技有限公司</t>
   </si>
@@ -170,15 +171,18 @@
   <si>
     <t>620-625NM/2.0-2.2V/5-6LM</t>
   </si>
+  <si>
+    <t>七彩慢闪2835</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -210,7 +214,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -218,6 +237,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +266,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -238,14 +280,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,40 +318,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,21 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -374,187 +378,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,6 +639,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -650,16 +669,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -693,177 +721,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,7 +1618,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1675,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>43925</v>
+        <v>43980</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1748,7 +1752,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="8">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
@@ -1758,7 +1762,7 @@
       </c>
       <c r="G8" s="8">
         <f>D8*F8</f>
-        <v>1350</v>
+        <v>3240</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>23</v>
@@ -1785,7 +1789,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11">
         <f>SUM(G8:G9)</f>
-        <v>1350</v>
+        <v>3240</v>
       </c>
       <c r="H10" s="16"/>
     </row>
@@ -1933,7 +1937,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1994,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>43942</v>
+        <v>43983</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -2105,6 +2109,321 @@
       <c r="G10" s="11">
         <f>SUM(G8:G9)</f>
         <v>3888</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" ht="6" customHeight="1" spans="1:8">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="12" customHeight="1" spans="1:8">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" ht="7" customHeight="1" spans="1:8">
+      <c r="A16" s="20"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15858239032</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:H17"/>
+  </mergeCells>
+  <pageMargins left="0.51" right="0.0784722222222222" top="0.28" bottom="1" header="0.28" footer="0.51"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="6.4" customWidth="1"/>
+    <col min="2" max="2" width="13.8" customWidth="1"/>
+    <col min="3" max="3" width="15.4" customWidth="1"/>
+    <col min="4" max="4" width="8.29166666666667" customWidth="1"/>
+    <col min="5" max="5" width="6.4" customWidth="1"/>
+    <col min="6" max="6" width="9.4" customWidth="1"/>
+    <col min="7" max="7" width="9.29166666666667" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" ht="4" customHeight="1" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43973</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18958505022</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="31" customHeight="1" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="42" customHeight="1" spans="1:8">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8">
+        <v>65</v>
+      </c>
+      <c r="G8" s="8">
+        <f>D8*F8</f>
+        <v>3900</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="31" customHeight="1" spans="1:8">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
+        <f>SUM(G8:G9)</f>
+        <v>3900</v>
       </c>
       <c r="H10" s="16"/>
     </row>

--- a/季诚/成交客户/军发电子/送货单/送货单.xlsx
+++ b/季诚/成交客户/军发电子/送货单/送货单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9612" activeTab="2"/>
+    <workbookView windowWidth="23256" windowHeight="9887" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UW27B" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
   <si>
     <t>台州市季诚电子科技有限公司</t>
   </si>
@@ -37,7 +37,7 @@
     <t>联系电话:</t>
   </si>
   <si>
-    <t>收款方式： 现款</t>
+    <t>收款方式： 月结30天</t>
   </si>
   <si>
     <t>是/否含税:</t>
@@ -73,28 +73,13 @@
     <t>0.2W/2835/白光</t>
   </si>
   <si>
-    <t>E2835UW27（B）</t>
+    <t>E2835UW27</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
     <t>65-4区，6500-7000K，24-26LM,3.0-3.3V,铜支架</t>
-  </si>
-  <si>
-    <t>0.2W/2835/金黄光</t>
-  </si>
-  <si>
-    <t>G2835US60-Y</t>
-  </si>
-  <si>
-    <t>1800K/22-24LM/2.9-3.0V</t>
-  </si>
-  <si>
-    <t>2835七彩慢闪</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>合     计：</t>
@@ -160,7 +145,13 @@
     <t>0576-88137745</t>
   </si>
   <si>
-    <t>收款方式： 月结30天</t>
+    <t>0.2W/2835/金黄光</t>
+  </si>
+  <si>
+    <t>G2835US60-Y</t>
+  </si>
+  <si>
+    <t>1800K/22-24LM/2.9-3.0V</t>
   </si>
   <si>
     <t>0.2W/2835/红光</t>
@@ -180,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -244,17 +235,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,25 +269,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,7 +333,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,181 +375,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,21 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -674,21 +650,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,6 +682,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -729,10 +720,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,133 +732,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1257,14 +1248,14 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.4" customWidth="1"/>
     <col min="2" max="2" width="13.8" customWidth="1"/>
-    <col min="3" max="3" width="15.4" customWidth="1"/>
+    <col min="3" max="3" width="13.7" customWidth="1"/>
     <col min="4" max="4" width="8.29166666666667" customWidth="1"/>
     <col min="5" max="5" width="6.4" customWidth="1"/>
     <col min="6" max="6" width="9.4" customWidth="1"/>
@@ -1318,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>43941</v>
+        <v>43991</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1391,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="8">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
@@ -1401,67 +1392,35 @@
       </c>
       <c r="G8" s="8">
         <f>D8*F8</f>
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="31" customHeight="1" spans="1:8">
-      <c r="A9" s="8">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8">
-        <v>36</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8">
-        <f>D9*F9</f>
-        <v>540</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:8">
-      <c r="A10" s="8">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="8">
-        <v>65</v>
-      </c>
-      <c r="G10" s="8">
-        <f>D10*F10</f>
-        <v>1300</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -1470,7 +1429,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11">
         <f>SUM(G8:G10)</f>
-        <v>3840</v>
+        <v>3200</v>
       </c>
       <c r="H11" s="16"/>
     </row>
@@ -1486,7 +1445,7 @@
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1498,7 +1457,7 @@
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:8">
       <c r="A14" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1520,7 +1479,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1542,7 +1501,7 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1554,7 +1513,7 @@
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>15858239032</v>
@@ -1568,10 +1527,10 @@
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1617,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1679,7 +1638,8 @@
         <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>43980</v>
+        <f ca="1">TODAY()</f>
+        <v>44033</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1701,7 +1661,7 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1746,13 +1706,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
@@ -1762,10 +1722,10 @@
       </c>
       <c r="G8" s="8">
         <f>D8*F8</f>
-        <v>3240</v>
+        <v>1620</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="31" customHeight="1" spans="1:8">
@@ -1780,7 +1740,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -1789,7 +1749,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11">
         <f>SUM(G8:G9)</f>
-        <v>3240</v>
+        <v>1620</v>
       </c>
       <c r="H10" s="16"/>
     </row>
@@ -1805,7 +1765,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1817,7 +1777,7 @@
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1839,7 +1799,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1861,7 +1821,7 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1873,7 +1833,7 @@
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>15858239032</v>
@@ -1887,10 +1847,10 @@
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1936,7 +1896,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -2020,7 +1980,7 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2065,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="8">
         <v>216</v>
@@ -2084,7 +2044,7 @@
         <v>3888</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="31" customHeight="1" spans="1:8">
@@ -2099,7 +2059,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -2124,7 +2084,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2136,7 +2096,7 @@
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2158,7 +2118,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -2180,7 +2140,7 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2192,7 +2152,7 @@
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>15858239032</v>
@@ -2206,10 +2166,10 @@
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2339,7 +2299,7 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2384,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8">
@@ -2414,7 +2374,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -2439,7 +2399,7 @@
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2451,7 +2411,7 @@
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2473,7 +2433,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -2495,7 +2455,7 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2507,7 +2467,7 @@
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>15858239032</v>
@@ -2521,10 +2481,10 @@
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>

--- a/季诚/成交客户/军发电子/送货单/送货单.xlsx
+++ b/季诚/成交客户/军发电子/送货单/送货单.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9887" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9612" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UW27B" sheetId="1" r:id="rId1"/>
     <sheet name="60-Y" sheetId="2" r:id="rId2"/>
     <sheet name="UR55" sheetId="3" r:id="rId3"/>
     <sheet name="七彩慢闪" sheetId="4" r:id="rId4"/>
+    <sheet name="UR60" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="37">
   <si>
     <t>台州市季诚电子科技有限公司</t>
   </si>
@@ -148,7 +149,7 @@
     <t>0.2W/2835/金黄光</t>
   </si>
   <si>
-    <t>G2835US60-Y</t>
+    <t>E2835US50-Y-DY</t>
   </si>
   <si>
     <t>1800K/22-24LM/2.9-3.0V</t>
@@ -164,6 +165,9 @@
   </si>
   <si>
     <t>七彩慢闪2835</t>
+  </si>
+  <si>
+    <t>E2835UR60</t>
   </si>
 </sst>
 </file>
@@ -171,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -205,13 +209,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -219,7 +216,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -250,6 +263,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,40 +314,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,6 +351,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -369,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,17 +619,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,11 +652,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,19 +670,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,153 +705,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1576,8 +1580,8 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1639,7 +1643,7 @@
       </c>
       <c r="G4" s="4">
         <f ca="1">TODAY()</f>
-        <v>44033</v>
+        <v>44049</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1701,7 +1705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:8">
+    <row r="8" ht="30" customHeight="1" spans="1:8">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="8">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
@@ -1722,21 +1726,38 @@
       </c>
       <c r="G8" s="8">
         <f>D8*F8</f>
-        <v>1620</v>
+        <v>2880</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="31" customHeight="1" spans="1:8">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+    <row r="9" ht="28" customHeight="1" spans="1:8">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8">
+        <v>120</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8">
+        <f>D9*F9</f>
+        <v>2160</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="13" t="s">
@@ -1749,7 +1770,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11">
         <f>SUM(G8:G9)</f>
-        <v>1620</v>
+        <v>5040</v>
       </c>
       <c r="H10" s="16"/>
     </row>
@@ -1897,7 +1918,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2523,4 +2544,323 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="6.4" customWidth="1"/>
+    <col min="2" max="2" width="13.8" customWidth="1"/>
+    <col min="3" max="3" width="15.4" customWidth="1"/>
+    <col min="4" max="4" width="8.29166666666667" customWidth="1"/>
+    <col min="5" max="5" width="6.4" customWidth="1"/>
+    <col min="6" max="6" width="9.4" customWidth="1"/>
+    <col min="7" max="7" width="9.29166666666667" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" ht="4" customHeight="1" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44049</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18958505022</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="31" customHeight="1" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="42" customHeight="1" spans="1:8">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="8">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8">
+        <f>D8*F8</f>
+        <v>504</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="31" customHeight="1" spans="1:8">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
+        <f>SUM(G8:G9)</f>
+        <v>504</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" ht="6" customHeight="1" spans="1:8">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="12" customHeight="1" spans="1:8">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" ht="7" customHeight="1" spans="1:8">
+      <c r="A16" s="20"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15858239032</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:H17"/>
+  </mergeCells>
+  <pageMargins left="0.51" right="0.0784722222222222" top="0.28" bottom="1" header="0.28" footer="0.51"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
 </file>